--- a/results/Fig5_PSEmax.xlsx
+++ b/results/Fig5_PSEmax.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Prog\github\organization\PIEPrivacy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79490C23-F4DD-453B-9DC2-F2D212221614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D482B67D-FDF2-4F23-BE4C-074F7E2B4555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
-    <sheet name="FS (max, l1-5)" sheetId="10" r:id="rId2"/>
-    <sheet name="ML (max, l1-5)" sheetId="9" r:id="rId3"/>
+    <sheet name="FS (max, trans)" sheetId="11" r:id="rId2"/>
+    <sheet name="FS (max, visit)" sheetId="12" r:id="rId3"/>
+    <sheet name="ML (max, trans)" sheetId="15" r:id="rId4"/>
+    <sheet name="ML (max, visit)" sheetId="13" r:id="rId5"/>
+    <sheet name="FS (max, l1-5)" sheetId="10" r:id="rId6"/>
+    <sheet name="ML (max, l1-5)" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>FS (max, trans)</t>
     <phoneticPr fontId="18"/>
@@ -75,10 +79,6 @@
   </si>
   <si>
     <t>#Testing Data Points</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>I(U;S) (nat)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -191,6 +191,15 @@
       <t>: visit probability vector-based attack</t>
     </r>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>genum</t>
+  </si>
+  <si>
+    <t>imnum</t>
+  </si>
+  <si>
+    <t>kl</t>
   </si>
 </sst>
 </file>
@@ -2489,24 +2498,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(results!$C$8,results!$C$10,results!$C$12,results!$C$13,results!$C$14)</c:f>
+              <c:f>(results!$B$8,results!$B$10,results!$B$12,results!$B$13,results!$B$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13.835916416334513</c:v>
+                  <c:v>19.961008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.068761218159002</c:v>
+                  <c:v>18.854237000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.759443044250113</c:v>
+                  <c:v>11.194509999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.844397072088663</c:v>
+                  <c:v>19.973243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.071107436338988</c:v>
+                  <c:v>23.185707000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,6 +2601,7 @@
         <c:axId val="577296192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="24"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2630,7 +2640,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>I(U;S) (nat)</a:t>
+                  <a:t>I(U;S) (bit)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
@@ -2699,7 +2709,7 @@
         <c:crossAx val="577294232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="3"/>
+        <c:majorUnit val="4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2777,9 +2787,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1097576722577268"/>
+          <c:x val="0.12416513328941153"/>
           <c:y val="4.985330757979451E-2"/>
-          <c:w val="0.86669662137108205"/>
+          <c:w val="0.84476436934949406"/>
           <c:h val="0.79489021119421543"/>
         </c:manualLayout>
       </c:layout>
@@ -2867,7 +2877,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F47F-4B8A-82D8-CA914348488C}"/>
+              <c16:uniqueId val="{00000000-0784-4F96-9751-0682F5946DC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2952,7 +2962,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F47F-4B8A-82D8-CA914348488C}"/>
+              <c16:uniqueId val="{00000002-0784-4F96-9751-0682F5946DC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3016,7 +3026,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F47F-4B8A-82D8-CA914348488C}"/>
+              <c16:uniqueId val="{00000004-0784-4F96-9751-0682F5946DC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3080,7 +3090,70 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F47F-4B8A-82D8-CA914348488C}"/>
+              <c16:uniqueId val="{00000005-0784-4F96-9751-0682F5946DC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Fingervein</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="003300"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$A$28:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$B$28:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>23.185707000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.185707000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0784-4F96-9751-0682F5946DC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3355,10 +3428,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.48505145029876329"/>
-          <c:y val="0.52899487732364137"/>
-          <c:w val="0.47250270251863763"/>
-          <c:h val="0.31344268029774064"/>
+          <c:x val="0.49487487900638882"/>
+          <c:y val="0.50566154766484817"/>
+          <c:w val="0.4722269473171582"/>
+          <c:h val="0.32744267809301664"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5632,13 +5705,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>148770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>576942</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>148770</xdr:rowOff>
@@ -5668,13 +5741,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>618919</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>206581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>568118</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>206582</xdr:rowOff>
@@ -5706,13 +5779,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>45356</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>108859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>199570</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>108859</xdr:rowOff>
@@ -5744,23 +5817,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47007</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>192390</xdr:rowOff>
+      <xdr:rowOff>199571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>201902</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>192391</xdr:rowOff>
+      <xdr:rowOff>199572</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="グラフ 9">
+        <xdr:cNvPr id="7" name="グラフ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11ABFA12-42FF-4CDD-9363-1B3EDA927098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C977AB5-7177-4848-8267-B75BC99F4908}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6080,7 +6153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -6090,172 +6163,130 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>19.961008</v>
       </c>
-      <c r="C8">
-        <f>B8*LN(2)</f>
-        <v>13.835916416334513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
         <v>16.090606999999999</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C14" si="0">B9*LN(2)</f>
-        <v>11.153158875548119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
         <v>18.854237000000001</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>13.068761218159002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
         <v>17.151425</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>11.88846188133536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>11.194509999999999</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>7.759443044250113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
         <v>19.973243</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>13.844397072088663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14">
         <v>23.185707000000001</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>16.071107436338988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
         <v>11.194509999999999</v>
       </c>
-      <c r="C18">
-        <f>B18*LN(2)</f>
-        <v>7.759443044250113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19">
         <v>11.194509999999999</v>
       </c>
-      <c r="C19">
-        <f>B19*LN(2)</f>
-        <v>7.759443044250113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -6263,36 +6294,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
         <v>19.973243</v>
       </c>
-      <c r="C23">
-        <f>B23*LN(2)</f>
-        <v>13.844397072088663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24">
         <v>19.973243</v>
       </c>
-      <c r="C24">
-        <f>B24*LN(2)</f>
-        <v>13.844397072088663</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -6300,28 +6323,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
         <v>23.185707000000001</v>
       </c>
-      <c r="C28">
-        <f>B28*LN(2)</f>
-        <v>16.071107436338988</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29">
         <v>23.185707000000001</v>
-      </c>
-      <c r="C29">
-        <f>B29*LN(2)</f>
-        <v>16.071107436338988</v>
       </c>
     </row>
   </sheetData>
@@ -6333,6 +6348,836 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34C69CD-18E9-46F3-82C2-E76957A47F4A}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>100000</v>
+      </c>
+      <c r="B2">
+        <v>100000</v>
+      </c>
+      <c r="C2">
+        <v>16.81062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>200000</v>
+      </c>
+      <c r="B3">
+        <v>200000</v>
+      </c>
+      <c r="C3">
+        <v>17.780033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>300000</v>
+      </c>
+      <c r="B4">
+        <v>300000</v>
+      </c>
+      <c r="C4">
+        <v>18.267461999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>400000</v>
+      </c>
+      <c r="B5">
+        <v>400000</v>
+      </c>
+      <c r="C5">
+        <v>18.682414999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6">
+        <v>500000</v>
+      </c>
+      <c r="C6">
+        <v>18.966875999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>600000</v>
+      </c>
+      <c r="B7">
+        <v>600000</v>
+      </c>
+      <c r="C7">
+        <v>18.687214999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>700000</v>
+      </c>
+      <c r="B8">
+        <v>700000</v>
+      </c>
+      <c r="C8">
+        <v>18.992215999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>800000</v>
+      </c>
+      <c r="B9">
+        <v>800000</v>
+      </c>
+      <c r="C9">
+        <v>19.184763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>900000</v>
+      </c>
+      <c r="B10">
+        <v>900000</v>
+      </c>
+      <c r="C10">
+        <v>19.354707999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1000000</v>
+      </c>
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11">
+        <v>19.506276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>1100000</v>
+      </c>
+      <c r="B12">
+        <v>1100000</v>
+      </c>
+      <c r="C12">
+        <v>19.643605000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>1200000</v>
+      </c>
+      <c r="B13">
+        <v>1200000</v>
+      </c>
+      <c r="C13">
+        <v>19.769161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>1300000</v>
+      </c>
+      <c r="B14">
+        <v>1300000</v>
+      </c>
+      <c r="C14">
+        <v>19.884643000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>1370637</v>
+      </c>
+      <c r="B15">
+        <v>1370637</v>
+      </c>
+      <c r="C15">
+        <v>19.961008</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063AF71-79AB-4058-A828-3B62BD877C2A}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>100000</v>
+      </c>
+      <c r="B2">
+        <v>100000</v>
+      </c>
+      <c r="C2">
+        <v>14.149526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>200000</v>
+      </c>
+      <c r="B3">
+        <v>200000</v>
+      </c>
+      <c r="C3">
+        <v>14.994522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>300000</v>
+      </c>
+      <c r="B4">
+        <v>300000</v>
+      </c>
+      <c r="C4">
+        <v>15.906382000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>400000</v>
+      </c>
+      <c r="B5">
+        <v>400000</v>
+      </c>
+      <c r="C5">
+        <v>15.716889999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>500000</v>
+      </c>
+      <c r="B6">
+        <v>500000</v>
+      </c>
+      <c r="C6">
+        <v>15.602772999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>600000</v>
+      </c>
+      <c r="B7">
+        <v>600000</v>
+      </c>
+      <c r="C7">
+        <v>16.262443999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>700000</v>
+      </c>
+      <c r="B8">
+        <v>700000</v>
+      </c>
+      <c r="C8">
+        <v>15.985013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>800000</v>
+      </c>
+      <c r="B9">
+        <v>800000</v>
+      </c>
+      <c r="C9">
+        <v>16.183461000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>900000</v>
+      </c>
+      <c r="B10">
+        <v>900000</v>
+      </c>
+      <c r="C10">
+        <v>16.120063999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1000000</v>
+      </c>
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11">
+        <v>15.878482999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>1100000</v>
+      </c>
+      <c r="B12">
+        <v>1100000</v>
+      </c>
+      <c r="C12">
+        <v>15.934939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>1200000</v>
+      </c>
+      <c r="B13">
+        <v>1200000</v>
+      </c>
+      <c r="C13">
+        <v>16.032346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>1300000</v>
+      </c>
+      <c r="B14">
+        <v>1300000</v>
+      </c>
+      <c r="C14">
+        <v>16.148081999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>1370637</v>
+      </c>
+      <c r="B15">
+        <v>1370637</v>
+      </c>
+      <c r="C15">
+        <v>16.090606999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619A8731-68C4-4D3E-AD2A-70BE80A004AB}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>13.398649000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>20000</v>
+      </c>
+      <c r="B3">
+        <v>20000</v>
+      </c>
+      <c r="C3">
+        <v>14.368992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>30000</v>
+      </c>
+      <c r="B4">
+        <v>30000</v>
+      </c>
+      <c r="C4">
+        <v>14.960305999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>40000</v>
+      </c>
+      <c r="B5">
+        <v>40000</v>
+      </c>
+      <c r="C5">
+        <v>15.375977000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>50000</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
+        <v>15.699099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>60000</v>
+      </c>
+      <c r="B7">
+        <v>60000</v>
+      </c>
+      <c r="C7">
+        <v>16.645378000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>70000</v>
+      </c>
+      <c r="B8">
+        <v>70000</v>
+      </c>
+      <c r="C8">
+        <v>16.858723999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>80000</v>
+      </c>
+      <c r="B9">
+        <v>80000</v>
+      </c>
+      <c r="C9">
+        <v>17.042587999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>90000</v>
+      </c>
+      <c r="B10">
+        <v>90000</v>
+      </c>
+      <c r="C10">
+        <v>17.824180999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>100000</v>
+      </c>
+      <c r="C11">
+        <v>17.974173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>110000</v>
+      </c>
+      <c r="B12">
+        <v>110000</v>
+      </c>
+      <c r="C12">
+        <v>18.125139999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>120000</v>
+      </c>
+      <c r="B13">
+        <v>120000</v>
+      </c>
+      <c r="C13">
+        <v>18.241368999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>130000</v>
+      </c>
+      <c r="B14">
+        <v>130000</v>
+      </c>
+      <c r="C14">
+        <v>18.357823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>140000</v>
+      </c>
+      <c r="B15">
+        <v>140000</v>
+      </c>
+      <c r="C15">
+        <v>18.464860000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>150000</v>
+      </c>
+      <c r="B16">
+        <v>150000</v>
+      </c>
+      <c r="C16">
+        <v>18.566559999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>160000</v>
+      </c>
+      <c r="B17">
+        <v>160000</v>
+      </c>
+      <c r="C17">
+        <v>18.663131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>170000</v>
+      </c>
+      <c r="B18">
+        <v>170000</v>
+      </c>
+      <c r="C18">
+        <v>18.733675999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>180000</v>
+      </c>
+      <c r="B19">
+        <v>180000</v>
+      </c>
+      <c r="C19">
+        <v>18.816974999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>185107</v>
+      </c>
+      <c r="B20">
+        <v>185107</v>
+      </c>
+      <c r="C20">
+        <v>18.854237000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BCDC2A-00EC-4E04-9036-548568A7F92F}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>15.457661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>20000</v>
+      </c>
+      <c r="B3">
+        <v>20000</v>
+      </c>
+      <c r="C3">
+        <v>16.177413999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>30000</v>
+      </c>
+      <c r="B4">
+        <v>30000</v>
+      </c>
+      <c r="C4">
+        <v>16.093419000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>40000</v>
+      </c>
+      <c r="B5">
+        <v>40000</v>
+      </c>
+      <c r="C5">
+        <v>16.459392999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>50000</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
+        <v>16.685341999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>60000</v>
+      </c>
+      <c r="B7">
+        <v>60000</v>
+      </c>
+      <c r="C7">
+        <v>16.865929999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>70000</v>
+      </c>
+      <c r="B8">
+        <v>70000</v>
+      </c>
+      <c r="C8">
+        <v>16.749525999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>80000</v>
+      </c>
+      <c r="B9">
+        <v>80000</v>
+      </c>
+      <c r="C9">
+        <v>16.633965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>90000</v>
+      </c>
+      <c r="B10">
+        <v>90000</v>
+      </c>
+      <c r="C10">
+        <v>16.757807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>100000</v>
+      </c>
+      <c r="C11">
+        <v>16.830202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>110000</v>
+      </c>
+      <c r="B12">
+        <v>110000</v>
+      </c>
+      <c r="C12">
+        <v>17.020938999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>120000</v>
+      </c>
+      <c r="B13">
+        <v>120000</v>
+      </c>
+      <c r="C13">
+        <v>17.095326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>130000</v>
+      </c>
+      <c r="B14">
+        <v>130000</v>
+      </c>
+      <c r="C14">
+        <v>16.958573999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>140000</v>
+      </c>
+      <c r="B15">
+        <v>140000</v>
+      </c>
+      <c r="C15">
+        <v>16.978823999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>150000</v>
+      </c>
+      <c r="B16">
+        <v>150000</v>
+      </c>
+      <c r="C16">
+        <v>17.013701999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>160000</v>
+      </c>
+      <c r="B17">
+        <v>160000</v>
+      </c>
+      <c r="C17">
+        <v>17.074247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>170000</v>
+      </c>
+      <c r="B18">
+        <v>170000</v>
+      </c>
+      <c r="C18">
+        <v>17.057903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>180000</v>
+      </c>
+      <c r="B19">
+        <v>180000</v>
+      </c>
+      <c r="C19">
+        <v>17.091428000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>185107</v>
+      </c>
+      <c r="B20">
+        <v>185107</v>
+      </c>
+      <c r="C20">
+        <v>17.151425</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6347,13 +7192,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6418,7 +7263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6433,13 +7278,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6500,5 +7345,6 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>